--- a/_Experiments/virus/Virus tracker.xlsx
+++ b/_Experiments/virus/Virus tracker.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Virus name</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>20 vials of 4 uL</t>
-  </si>
-  <si>
-    <t>TauP301L-GFP</t>
-  </si>
-  <si>
     <t>AAV-EF1a-DIOEYFP-WPRE-pA]</t>
   </si>
   <si>
@@ -85,6 +79,51 @@
   </si>
   <si>
     <t>Viral titer (particles/mL</t>
+  </si>
+  <si>
+    <t>Xx10^13</t>
+  </si>
+  <si>
+    <t>TauP301L-GFP (AAV8)</t>
+  </si>
+  <si>
+    <t>AAV5-DIO-eYFP</t>
+  </si>
+  <si>
+    <t>2.4x10^13</t>
+  </si>
+  <si>
+    <t>AAV8-DIO-TauP301L-t2A-mCherry</t>
+  </si>
+  <si>
+    <t>pAAV-hSyn-DIO-hM3D(Gq)-mCherry</t>
+  </si>
+  <si>
+    <t>Addgene</t>
+  </si>
+  <si>
+    <t>pAAV-hSyn-DIO-hM4D(Gi)-mCherry</t>
+  </si>
+  <si>
+    <t>pAAV-hSyn-DIO-mCherry</t>
+  </si>
+  <si>
+    <t>5 uL, 20 tubes</t>
+  </si>
+  <si>
+    <t>4 uL, 25 tubes</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2.5x10^13</t>
+  </si>
+  <si>
+    <t>2.1x10^13</t>
+  </si>
+  <si>
+    <t>1.9x10^13</t>
   </si>
 </sst>
 </file>
@@ -144,7 +183,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -213,17 +302,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A1:H14"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Virus name" dataDxfId="14"/>
-    <tableColumn id="2" name="From" dataDxfId="13"/>
-    <tableColumn id="8" name="Serotype" dataDxfId="12"/>
-    <tableColumn id="3" name="Quantity (uL)" dataDxfId="11"/>
-    <tableColumn id="4" name="Viral titer (particles/mL" dataDxfId="10"/>
-    <tableColumn id="5" name="Received" dataDxfId="9"/>
-    <tableColumn id="6" name="Complete usage" dataDxfId="8"/>
-    <tableColumn id="7" name="Aliquoted to" dataDxfId="7"/>
+    <tableColumn id="1" name="Virus name" dataDxfId="23"/>
+    <tableColumn id="2" name="From" dataDxfId="22"/>
+    <tableColumn id="8" name="Serotype" dataDxfId="21"/>
+    <tableColumn id="3" name="Quantity (uL)" dataDxfId="20"/>
+    <tableColumn id="4" name="Viral titer (particles/mL" dataDxfId="19"/>
+    <tableColumn id="5" name="Received" dataDxfId="18"/>
+    <tableColumn id="6" name="Complete usage" dataDxfId="17"/>
+    <tableColumn id="7" name="Aliquoted to" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,7 +608,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,7 +637,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -562,7 +651,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -574,19 +663,19 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>42998</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -598,19 +687,19 @@
         <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>42998</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -622,14 +711,14 @@
         <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>42998</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -646,19 +735,19 @@
         <v>100</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>42998</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -670,25 +759,25 @@
         <v>100</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>42998</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
+      <c r="C7" s="3">
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>20</v>
@@ -697,61 +786,125 @@
         <v>10</v>
       </c>
       <c r="F7" s="4">
-        <v>43057</v>
+        <v>43058</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43188</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43188</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43188</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43188</v>
+      </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -778,7 +931,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H14">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$G:XFD="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/_Experiments/virus/Virus tracker.xlsx
+++ b/_Experiments/virus/Virus tracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4B04FED-C405-2B47-8BF8-D5ADC65AEF2F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Virus name</t>
   </si>
@@ -124,13 +125,19 @@
   </si>
   <si>
     <t>1.9x10^13</t>
+  </si>
+  <si>
+    <t>AAV-flex-taCasp3-TEVp</t>
+  </si>
+  <si>
+    <t>5???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,87 +190,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -291,28 +218,36 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="A1:H14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Virus name" dataDxfId="23"/>
-    <tableColumn id="2" name="From" dataDxfId="22"/>
-    <tableColumn id="8" name="Serotype" dataDxfId="21"/>
-    <tableColumn id="3" name="Quantity (uL)" dataDxfId="20"/>
-    <tableColumn id="4" name="Viral titer (particles/mL" dataDxfId="19"/>
-    <tableColumn id="5" name="Received" dataDxfId="18"/>
-    <tableColumn id="6" name="Complete usage" dataDxfId="17"/>
-    <tableColumn id="7" name="Aliquoted to" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Virus name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="From" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Serotype" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Quantity (uL)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Viral titer (particles/mL" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Received" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Complete usage" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aliquoted to" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -361,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,9 +329,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,6 +381,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,26 +573,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -673,7 +642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -697,7 +666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -721,7 +690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -745,7 +714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -769,7 +738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -795,7 +764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -819,7 +788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -843,7 +812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -867,7 +836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -891,7 +860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -909,17 +878,25 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -931,7 +908,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H14">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$G:XFD="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -944,24 +921,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_Experiments/virus/Virus tracker.xlsx
+++ b/_Experiments/virus/Virus tracker.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4B04FED-C405-2B47-8BF8-D5ADC65AEF2F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Virus name</t>
   </si>
@@ -130,14 +129,14 @@
     <t>AAV-flex-taCasp3-TEVp</t>
   </si>
   <si>
-    <t>5???</t>
+    <t>4.6x10^12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +189,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -237,17 +246,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H14" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A1:H14"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Virus name" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="From" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Serotype" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Quantity (uL)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Viral titer (particles/mL" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Received" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Complete usage" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aliquoted to" dataDxfId="0"/>
+    <tableColumn id="1" name="Virus name" dataDxfId="9"/>
+    <tableColumn id="2" name="From" dataDxfId="8"/>
+    <tableColumn id="8" name="Serotype" dataDxfId="7"/>
+    <tableColumn id="3" name="Quantity (uL)" dataDxfId="6"/>
+    <tableColumn id="4" name="Viral titer (particles/mL" dataDxfId="5"/>
+    <tableColumn id="5" name="Received" dataDxfId="4"/>
+    <tableColumn id="6" name="Complete usage" dataDxfId="3"/>
+    <tableColumn id="7" name="Aliquoted to" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -296,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,26 +338,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,23 +373,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,26 +548,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -642,7 +617,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -666,7 +641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -690,7 +665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -714,7 +689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -738,7 +713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -764,7 +739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -788,7 +763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -812,7 +787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -836,7 +811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -860,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -876,27 +851,35 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
+      <c r="C13" s="1">
+        <v>5</v>
       </c>
       <c r="D13" s="1">
         <v>100</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
+        <v>43236</v>
+      </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -908,7 +891,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H14">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$G:XFD="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -921,24 +904,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
